--- a/3.1/Расчеты.xlsx
+++ b/3.1/Расчеты.xlsx
@@ -52,23 +52,7 @@
     <t xml:space="preserve">ОЗУ для ноды</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CPU </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">для ноды</t>
-    </r>
+    <t xml:space="preserve">CPU для ноды</t>
   </si>
   <si>
     <t xml:space="preserve">БД</t>
@@ -131,11 +115,12 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -154,14 +139,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -316,136 +296,132 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -635,7 +611,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -712,26 +688,26 @@
       </c>
       <c r="H2" s="10" t="n">
         <f aca="false">D2/$B$9</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I2" s="11" t="n">
         <f aca="false">B2*H2/($B$9-$B$10)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J2" s="11" t="n">
         <f aca="false">C2*$H2/($B$9-$B$10)</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
       <c r="N2" s="11" t="n">
         <f aca="false">B2*H2+I2</f>
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O2" s="12" t="n">
         <f aca="false">C2*H2+J2</f>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,23 +733,23 @@
       </c>
       <c r="H3" s="13" t="n">
         <f aca="false">D3/$B$9</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I3" s="1" t="n">
         <f aca="false">B3*H3/($B$9-$B$10)</f>
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="J3" s="1" t="n">
         <f aca="false">C3*$H3/($B$9-$B$10)</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="N3" s="1" t="n">
         <f aca="false">B3*H3+I3</f>
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O3" s="9" t="n">
         <f aca="false">C3*H3+J3</f>
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,23 +775,23 @@
       </c>
       <c r="H4" s="14" t="n">
         <f aca="false">D4/$B$9</f>
-        <v>0.833333333333333</v>
+        <v>1</v>
       </c>
       <c r="I4" s="1" t="n">
         <f aca="false">B4*H4/($B$9-$B$10)</f>
-        <v>0.00833333333333334</v>
+        <v>0.0125</v>
       </c>
       <c r="J4" s="1" t="n">
         <f aca="false">C4*$H4/($B$9-$B$10)</f>
-        <v>0.0333333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="N4" s="1" t="n">
         <f aca="false">B4*H4+I4</f>
-        <v>0.05</v>
+        <v>0.0625</v>
       </c>
       <c r="O4" s="9" t="n">
         <f aca="false">C4*H4+J4</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,23 +817,23 @@
       </c>
       <c r="H5" s="14" t="n">
         <f aca="false">D5/$B$9</f>
-        <v>1.66666666666667</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1" t="n">
         <f aca="false">B5*H5/($B$9-$B$10)</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J5" s="1" t="n">
         <f aca="false">C5*$H5/($B$9-$B$10)</f>
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="N5" s="1" t="n">
         <f aca="false">B5*H5+I5</f>
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="O5" s="9" t="n">
         <f aca="false">C5*H5+J5</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,22 +851,22 @@
       <c r="H6" s="13"/>
       <c r="I6" s="1" t="n">
         <f aca="false">I2+I3+I4+I5</f>
-        <v>1.00833333333333</v>
+        <v>1.5125</v>
       </c>
       <c r="J6" s="1" t="n">
         <f aca="false">J2+J3+J4+J5</f>
-        <v>0.566666666666667</v>
+        <v>0.85</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="1" t="n">
         <f aca="false">N2+N3+N4+N5+L2</f>
-        <v>6.05</v>
+        <v>7.5625</v>
       </c>
       <c r="O6" s="9" t="n">
         <f aca="false">O2+O3+O4+O5+M2</f>
-        <v>3.4</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -904,7 +880,7 @@
       </c>
       <c r="O7" s="21" t="n">
         <f aca="false">_xlfn.CEILING.MATH(O6, 2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -918,11 +894,11 @@
       </c>
       <c r="N8" s="24" t="n">
         <f aca="false">N7*B9</f>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O8" s="21" t="n">
         <f aca="false">O7*B9</f>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="60.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -930,7 +906,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="17"/>
@@ -942,11 +918,11 @@
       </c>
       <c r="N9" s="27" t="n">
         <f aca="false">N7*($B$9-$B$10)-L2*($B$9-$B$10)</f>
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O9" s="27" t="n">
         <f aca="false">O7*($B$9-$B$10)-M2*($B$9-$B$10)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1019,7 +995,7 @@
       <c r="O17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="20" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="22"/>
@@ -1065,7 +1041,7 @@
       <c r="E23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="31"/>
+      <c r="H23" s="30"/>
       <c r="O23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1078,14 +1054,14 @@
       <c r="C24" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D24" s="32" t="n">
+      <c r="D24" s="31" t="n">
         <v>20474.86</v>
       </c>
       <c r="E24" s="1" t="n">
         <f aca="false">D24*A24</f>
         <v>40949.72</v>
       </c>
-      <c r="H24" s="31"/>
+      <c r="H24" s="30"/>
       <c r="O24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1098,7 +1074,7 @@
       <c r="C25" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D25" s="32" t="n">
+      <c r="D25" s="31" t="n">
         <v>12963.24</v>
       </c>
       <c r="E25" s="1" t="n">
@@ -1124,7 +1100,7 @@
       <c r="C26" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D26" s="32" t="n">
+      <c r="D26" s="31" t="n">
         <v>7955.5</v>
       </c>
       <c r="E26" s="1" t="n">
@@ -1142,7 +1118,7 @@
       <c r="C27" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D27" s="32" t="n">
+      <c r="D27" s="31" t="n">
         <v>7955.5</v>
       </c>
       <c r="E27" s="1" t="n">
@@ -1160,7 +1136,7 @@
       <c r="C28" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D28" s="32" t="n">
+      <c r="D28" s="31" t="n">
         <v>5451.62</v>
       </c>
       <c r="E28" s="1" t="n">
@@ -1178,7 +1154,7 @@
       <c r="C29" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D29" s="32" t="n">
+      <c r="D29" s="31" t="n">
         <v>5451.62</v>
       </c>
       <c r="E29" s="1" t="n">
@@ -1196,7 +1172,7 @@
       <c r="C30" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D30" s="32" t="n">
+      <c r="D30" s="31" t="n">
         <v>5451.62</v>
       </c>
       <c r="E30" s="1" t="n">
